--- a/Payments/Contractor Payment Cerfificates/KCE/Sub Contractor Payment/D002 Data Link/Data Link Progress Assessment - March 2023.xlsx
+++ b/Payments/Contractor Payment Cerfificates/KCE/Sub Contractor Payment/D002 Data Link/Data Link Progress Assessment - March 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himal\OneDrive\Documents\Work\ECON\Omniyat\Payments\Contractor Payment Cerfificates\KCE\Sub Contractor Payment\D002 Data Link\3 March\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tharaka\F015 - Plot 18\Main Scope\Payments\Mar 2023\Completed DSC by Kosala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67C9A5C-4D18-4E5D-839F-27AFA26DE5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69918C8E-5100-4B9C-9639-235B6CCE1980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="844" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -33,42 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Himal Kosala</author>
-  </authors>
-  <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{C73151DD-F7CF-4126-B701-CD47B48ADE46}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Himal Kosala:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Only 80% will certified due to following reasons
-Variation not finalized (hold 10%)
-WIR not raised (hold 10%)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2410,7 +2374,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2579,19 +2543,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3171,47 +3122,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="4" fontId="15" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3255,21 +3180,47 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="4" fontId="15" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3613,102 +3564,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015AA94A-10CC-455E-B5F4-A91330252B9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015AA94A-10CC-455E-B5F4-A91330252B9F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.6328125" customWidth="1"/>
-    <col min="3" max="5" width="19.453125" style="118" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" style="120" customWidth="1"/>
-    <col min="7" max="7" width="19.453125" style="118" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="5" width="19.44140625" style="90" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="92" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="90" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="116" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="116" t="s">
+    <row r="1" spans="1:7" s="88" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="88" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="116" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="117" t="s">
+      <c r="B1" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="89" t="s">
         <v>356</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="89" t="s">
         <v>355</v>
       </c>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="89" t="s">
         <v>357</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="F1" s="91" t="s">
         <v>361</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="G1" s="89" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>359</v>
       </c>
-      <c r="C2" s="118">
+      <c r="C2" s="90">
         <v>54387.15</v>
       </c>
-      <c r="D2" s="118">
+      <c r="D2" s="90">
         <v>64747.548999999992</v>
       </c>
-      <c r="E2" s="118">
+      <c r="E2" s="90">
         <f>G2-D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="120">
+      <c r="F2" s="92">
         <f>G2/C2</f>
         <v>1.1904935081172665</v>
       </c>
-      <c r="G2" s="118">
+      <c r="G2" s="90">
         <f>SUM(BOQ!M7:M155)</f>
         <v>64747.548999999992</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>360</v>
       </c>
-      <c r="D3" s="118">
+      <c r="D3" s="90">
         <v>449858.935</v>
       </c>
-      <c r="E3" s="118">
-        <f>SUM(BOQ!L157:L361)*0.8</f>
-        <v>18867.52</v>
-      </c>
-      <c r="G3" s="118">
+      <c r="E3" s="90">
+        <f>SUM(BOQ!L157:L361)</f>
+        <v>18867.520000000004</v>
+      </c>
+      <c r="G3" s="90">
         <f>E3+D3</f>
         <v>468726.45500000002</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D4" s="121">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" s="93">
         <f>SUM(D2:D3)</f>
         <v>514606.484</v>
       </c>
-      <c r="E4" s="121">
+      <c r="E4" s="93">
         <f>SUM(E2:E3)</f>
-        <v>18867.52</v>
-      </c>
-      <c r="F4" s="122"/>
-      <c r="G4" s="121">
+        <v>18867.520000000004</v>
+      </c>
+      <c r="F4" s="94"/>
+      <c r="G4" s="93">
         <f>SUM(G2:G3)</f>
         <v>533474.00399999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="77" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3719,38 +3669,38 @@
   </sheetPr>
   <dimension ref="A1:O367"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="80" zoomScaleNormal="115" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I292" sqref="I292"/>
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="115" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I362" sqref="I362"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.1796875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="50.7265625" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="50.77734375" customWidth="1"/>
     <col min="3" max="3" width="9" style="32" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="3" customWidth="1"/>
     <col min="6" max="6" width="20" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="32" customWidth="1"/>
     <col min="8" max="8" width="10" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" style="78" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" style="78" customWidth="1"/>
-    <col min="13" max="13" width="12.7265625" customWidth="1"/>
-    <col min="15" max="15" width="10.81640625" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" style="78" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" style="78" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="48"/>
       <c r="H1" s="8"/>
       <c r="I1" s="9"/>
@@ -3759,99 +3709,99 @@
       <c r="L1" s="9"/>
       <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="104" t="s">
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="113" t="s">
+      <c r="B2" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="104" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="110" t="s">
+      <c r="F2" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="99" t="s">
+      <c r="G2" s="121" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="88" t="s">
+      <c r="I2" s="111"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="105"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="98" t="s">
+      <c r="L2" s="111"/>
+      <c r="M2" s="112"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="99"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="92" t="s">
+      <c r="I3" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="91" t="s">
+      <c r="J3" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="91" t="s">
+      <c r="K3" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="92" t="s">
+      <c r="L3" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="93" t="s">
+      <c r="M3" s="115" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="106"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="92"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="93"/>
-    </row>
-    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="94" t="s">
+    <row r="4" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="100"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="114"/>
+      <c r="M4" s="115"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="96"/>
-    </row>
-    <row r="6" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="118"/>
+    </row>
+    <row r="6" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
       <c r="B6" s="28" t="s">
         <v>79</v>
@@ -3868,7 +3818,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="12"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26">
         <v>1</v>
       </c>
@@ -3906,7 +3856,7 @@
         <v>2928.2499999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26">
         <v>2</v>
       </c>
@@ -3943,7 +3893,7 @@
         <v>230.35</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26">
         <v>3</v>
       </c>
@@ -3980,7 +3930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26">
         <v>4</v>
       </c>
@@ -4018,7 +3968,7 @@
         <v>626.45000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26">
         <v>5</v>
       </c>
@@ -4056,7 +4006,7 @@
         <v>626.45000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26">
         <v>6</v>
       </c>
@@ -4094,7 +4044,7 @@
         <v>626.45000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26">
         <v>7</v>
       </c>
@@ -4132,7 +4082,7 @@
         <v>555.26250000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26">
         <v>8</v>
       </c>
@@ -4170,7 +4120,7 @@
         <v>597.97500000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26">
         <v>9</v>
       </c>
@@ -4206,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26">
         <v>10</v>
       </c>
@@ -4242,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26">
         <v>11</v>
       </c>
@@ -4280,7 +4230,7 @@
         <v>2320.5</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26">
         <v>12</v>
       </c>
@@ -4318,7 +4268,7 @@
         <v>426.53</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26">
         <v>13</v>
       </c>
@@ -4356,7 +4306,7 @@
         <v>456.875</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
         <v>14</v>
       </c>
@@ -4394,7 +4344,7 @@
         <v>246.83999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>15</v>
       </c>
@@ -4432,7 +4382,7 @@
         <v>214.2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26">
         <v>16</v>
       </c>
@@ -4470,7 +4420,7 @@
         <v>264.43499999999995</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26">
         <v>17</v>
       </c>
@@ -4508,7 +4458,7 @@
         <v>630.48749999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26">
         <v>18</v>
       </c>
@@ -4546,7 +4496,7 @@
         <v>1290.3000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26">
         <v>19</v>
       </c>
@@ -4584,7 +4534,7 @@
         <v>630.48749999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26">
         <v>20</v>
       </c>
@@ -4622,7 +4572,7 @@
         <v>630.48749999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="26">
         <v>21</v>
       </c>
@@ -4660,7 +4610,7 @@
         <v>630.48749999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26">
         <v>22</v>
       </c>
@@ -4698,7 +4648,7 @@
         <v>630.48749999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="26">
         <v>23</v>
       </c>
@@ -4728,7 +4678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26">
         <v>24</v>
       </c>
@@ -4747,7 +4697,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="26">
         <v>25</v>
       </c>
@@ -4782,7 +4732,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="26">
         <v>26</v>
       </c>
@@ -4817,7 +4767,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="26"/>
       <c r="B33" s="28" t="s">
         <v>88</v>
@@ -4845,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26">
         <v>27</v>
       </c>
@@ -4883,7 +4833,7 @@
         <v>843.20000000000016</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="26">
         <v>28</v>
       </c>
@@ -4921,7 +4871,7 @@
         <v>572.00749999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26">
         <v>29</v>
       </c>
@@ -4959,7 +4909,7 @@
         <v>200.09000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="26">
         <v>30</v>
       </c>
@@ -4995,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26">
         <v>31</v>
       </c>
@@ -5031,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="26">
         <v>32</v>
       </c>
@@ -5060,7 +5010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="26">
         <v>33</v>
       </c>
@@ -5089,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="26">
         <v>34</v>
       </c>
@@ -5118,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="26">
         <v>35</v>
       </c>
@@ -5147,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="26">
         <v>36</v>
       </c>
@@ -5176,7 +5126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26">
         <v>37</v>
       </c>
@@ -5214,7 +5164,7 @@
         <v>3359.6250000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="26">
         <v>38</v>
       </c>
@@ -5252,7 +5202,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26">
         <v>39</v>
       </c>
@@ -5290,7 +5240,7 @@
         <v>596.70000000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="26">
         <v>40</v>
       </c>
@@ -5328,7 +5278,7 @@
         <v>596.70000000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="26">
         <v>41</v>
       </c>
@@ -5366,7 +5316,7 @@
         <v>596.70000000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26">
         <v>42</v>
       </c>
@@ -5404,7 +5354,7 @@
         <v>569.5</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="26">
         <v>43</v>
       </c>
@@ -5442,7 +5392,7 @@
         <v>569.5</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
         <v>44</v>
       </c>
@@ -5480,7 +5430,7 @@
         <v>293.25</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="26">
         <v>45</v>
       </c>
@@ -5518,7 +5468,7 @@
         <v>214.2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="26">
         <v>46</v>
       </c>
@@ -5554,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="26">
         <v>47</v>
       </c>
@@ -5592,7 +5542,7 @@
         <v>1958.4000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26">
         <v>48</v>
       </c>
@@ -5630,7 +5580,7 @@
         <v>214.2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="26">
         <v>49</v>
       </c>
@@ -5668,7 +5618,7 @@
         <v>214.2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
         <v>50</v>
       </c>
@@ -5704,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
         <v>51</v>
       </c>
@@ -5729,7 +5679,7 @@
       <c r="L58" s="5"/>
       <c r="M58" s="13"/>
     </row>
-    <row r="59" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
         <v>52</v>
       </c>
@@ -5764,7 +5714,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="26"/>
       <c r="B60" s="27"/>
       <c r="C60" s="2"/>
@@ -5790,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26"/>
       <c r="B61" s="28" t="s">
         <v>95</v>
@@ -5818,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="26">
         <v>53</v>
       </c>
@@ -5856,7 +5806,7 @@
         <v>626.45000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="26">
         <v>54</v>
       </c>
@@ -5894,7 +5844,7 @@
         <v>217.25999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="26">
         <v>55</v>
       </c>
@@ -5932,7 +5882,7 @@
         <v>214.2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="26">
         <v>56</v>
       </c>
@@ -5970,7 +5920,7 @@
         <v>600.1</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="26">
         <v>57</v>
       </c>
@@ -6008,7 +5958,7 @@
         <v>600.27</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="26">
         <v>58</v>
       </c>
@@ -6046,7 +5996,7 @@
         <v>497.25</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="26">
         <v>59</v>
       </c>
@@ -6084,7 +6034,7 @@
         <v>599.46249999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="26">
         <v>60</v>
       </c>
@@ -6122,7 +6072,7 @@
         <v>607.75</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="26">
         <v>61</v>
       </c>
@@ -6160,7 +6110,7 @@
         <v>599.46249999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="26">
         <v>62</v>
       </c>
@@ -6198,7 +6148,7 @@
         <v>599.46249999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="26">
         <v>63</v>
       </c>
@@ -6236,7 +6186,7 @@
         <v>856.8</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="26">
         <v>64</v>
       </c>
@@ -6274,7 +6224,7 @@
         <v>445.38300000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="26">
         <v>65</v>
       </c>
@@ -6312,7 +6262,7 @@
         <v>607.75</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="26">
         <v>66</v>
       </c>
@@ -6350,7 +6300,7 @@
         <v>219.55500000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="26">
         <v>67</v>
       </c>
@@ -6388,7 +6338,7 @@
         <v>626.45000000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="26">
         <v>68</v>
       </c>
@@ -6426,7 +6376,7 @@
         <v>607.75</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="26">
         <v>69</v>
       </c>
@@ -6464,7 +6414,7 @@
         <v>607.75</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="26">
         <v>70</v>
       </c>
@@ -6502,7 +6452,7 @@
         <v>607.75</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="26">
         <v>71</v>
       </c>
@@ -6540,7 +6490,7 @@
         <v>584.79999999999995</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="26">
         <v>72</v>
       </c>
@@ -6575,7 +6525,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="26"/>
       <c r="B82" s="28" t="s">
         <v>160</v>
@@ -6592,7 +6542,7 @@
       <c r="L82" s="5"/>
       <c r="M82" s="13"/>
     </row>
-    <row r="83" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="26">
         <v>73</v>
       </c>
@@ -6627,7 +6577,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="26"/>
       <c r="B84" s="28" t="s">
         <v>101</v>
@@ -6655,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="26">
         <v>74</v>
       </c>
@@ -6693,7 +6643,7 @@
         <v>214.2</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="26">
         <v>75</v>
       </c>
@@ -6731,7 +6681,7 @@
         <v>214.2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="26">
         <v>76</v>
       </c>
@@ -6766,7 +6716,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="26"/>
       <c r="B88" s="28" t="s">
         <v>102</v>
@@ -6794,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="26">
         <v>77</v>
       </c>
@@ -6832,7 +6782,7 @@
         <v>214.2</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="26">
         <v>78</v>
       </c>
@@ -6870,7 +6820,7 @@
         <v>214.2</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="26">
         <v>79</v>
       </c>
@@ -6905,7 +6855,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="26"/>
       <c r="B92" s="28" t="s">
         <v>103</v>
@@ -6933,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="26">
         <v>80</v>
       </c>
@@ -6971,7 +6921,7 @@
         <v>214.2</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="26">
         <v>81</v>
       </c>
@@ -7009,7 +6959,7 @@
         <v>214.2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="26">
         <v>82</v>
       </c>
@@ -7044,7 +6994,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="26"/>
       <c r="B96" s="28" t="s">
         <v>104</v>
@@ -7072,7 +7022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="26">
         <v>83</v>
       </c>
@@ -7110,7 +7060,7 @@
         <v>224.1875</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="26">
         <v>84</v>
       </c>
@@ -7148,7 +7098,7 @@
         <v>214.2</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="26">
         <v>85</v>
       </c>
@@ -7186,7 +7136,7 @@
         <v>214.2</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="26">
         <v>86</v>
       </c>
@@ -7221,7 +7171,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="26"/>
       <c r="B101" s="28" t="s">
         <v>107</v>
@@ -7249,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="26">
         <v>87</v>
       </c>
@@ -7287,7 +7237,7 @@
         <v>217.25999999999996</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="26">
         <v>88</v>
       </c>
@@ -7325,7 +7275,7 @@
         <v>214.2</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="26">
         <v>89</v>
       </c>
@@ -7363,7 +7313,7 @@
         <v>223.125</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="26">
         <v>90</v>
       </c>
@@ -7398,7 +7348,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="26"/>
       <c r="B106" s="28" t="s">
         <v>108</v>
@@ -7426,7 +7376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="26">
         <v>91</v>
       </c>
@@ -7464,7 +7414,7 @@
         <v>214.2</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="26">
         <v>92</v>
       </c>
@@ -7502,7 +7452,7 @@
         <v>214.2</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="26">
         <v>93</v>
       </c>
@@ -7540,7 +7490,7 @@
         <v>223.125</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="26">
         <v>94</v>
       </c>
@@ -7575,7 +7525,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="26"/>
       <c r="B111" s="28" t="s">
         <v>109</v>
@@ -7603,7 +7553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="26">
         <v>95</v>
       </c>
@@ -7641,7 +7591,7 @@
         <v>215.21999999999997</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="26">
         <v>96</v>
       </c>
@@ -7679,7 +7629,7 @@
         <v>217.25999999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="26">
         <v>97</v>
       </c>
@@ -7717,7 +7667,7 @@
         <v>225.25000000000006</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="26">
         <v>98</v>
       </c>
@@ -7752,7 +7702,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="26"/>
       <c r="B116" s="28" t="s">
         <v>110</v>
@@ -7780,7 +7730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="26">
         <v>99</v>
       </c>
@@ -7818,7 +7768,7 @@
         <v>217.25999999999996</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="26">
         <v>100</v>
       </c>
@@ -7856,7 +7806,7 @@
         <v>216.24</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="26">
         <v>101</v>
       </c>
@@ -7891,7 +7841,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="26"/>
       <c r="B120" s="28" t="s">
         <v>111</v>
@@ -7919,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="26">
         <v>102</v>
       </c>
@@ -7954,7 +7904,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="26"/>
       <c r="B122" s="28" t="s">
         <v>170</v>
@@ -7979,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="26">
         <v>103</v>
       </c>
@@ -8014,7 +7964,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="26"/>
       <c r="B124" s="28" t="s">
         <v>161</v>
@@ -8039,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="26">
         <v>104</v>
       </c>
@@ -8074,7 +8024,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="26"/>
       <c r="B126" s="28" t="s">
         <v>162</v>
@@ -8099,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="26">
         <v>105</v>
       </c>
@@ -8134,7 +8084,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="26"/>
       <c r="B128" s="28" t="s">
         <v>163</v>
@@ -8159,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="26">
         <v>106</v>
       </c>
@@ -8194,7 +8144,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="26"/>
       <c r="B130" s="28" t="s">
         <v>164</v>
@@ -8219,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="26">
         <v>107</v>
       </c>
@@ -8254,7 +8204,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="26"/>
       <c r="B132" s="28" t="s">
         <v>165</v>
@@ -8282,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="26">
         <v>108</v>
       </c>
@@ -8320,7 +8270,7 @@
         <v>959.65</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="26">
         <v>109</v>
       </c>
@@ -8353,7 +8303,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="26">
         <v>110</v>
       </c>
@@ -8388,7 +8338,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="26"/>
       <c r="B136" s="28" t="s">
         <v>166</v>
@@ -8413,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="26">
         <v>111</v>
       </c>
@@ -8448,7 +8398,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="26"/>
       <c r="B138" s="28" t="s">
         <v>167</v>
@@ -8473,7 +8423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="26">
         <v>112</v>
       </c>
@@ -8508,7 +8458,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="26"/>
       <c r="B140" s="28" t="s">
         <v>168</v>
@@ -8533,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="26">
         <v>113</v>
       </c>
@@ -8568,7 +8518,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="26"/>
       <c r="B142" s="28" t="s">
         <v>169</v>
@@ -8593,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="26">
         <v>114</v>
       </c>
@@ -8628,7 +8578,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="26"/>
       <c r="B144" s="28" t="s">
         <v>100</v>
@@ -8656,7 +8606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="26">
         <v>115</v>
       </c>
@@ -8694,7 +8644,7 @@
         <v>219.29999999999995</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="26">
         <v>116</v>
       </c>
@@ -8732,7 +8682,7 @@
         <v>497.25</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="26">
         <v>117</v>
       </c>
@@ -8770,7 +8720,7 @@
         <v>219.29999999999995</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="26">
         <v>118</v>
       </c>
@@ -8808,7 +8758,7 @@
         <v>224.78249999999997</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="26">
         <v>119</v>
       </c>
@@ -8846,7 +8796,7 @@
         <v>287.30000000000007</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="26">
         <v>120</v>
       </c>
@@ -8884,7 +8834,7 @@
         <v>224.4</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="26">
         <v>121</v>
       </c>
@@ -8922,7 +8872,7 @@
         <v>499.596</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="26">
         <v>122</v>
       </c>
@@ -8960,7 +8910,7 @@
         <v>226.60999999999999</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="26">
         <v>123</v>
       </c>
@@ -8999,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="26">
         <v>124</v>
       </c>
@@ -9038,7 +8988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="26">
         <v>125</v>
       </c>
@@ -9073,7 +9023,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="26"/>
       <c r="B156" s="37" t="s">
         <v>81</v>
@@ -9104,7 +9054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="26"/>
       <c r="B157" s="38" t="s">
         <v>117</v>
@@ -9123,7 +9073,7 @@
       <c r="L157" s="5"/>
       <c r="M157" s="13"/>
     </row>
-    <row r="158" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="26">
         <v>126</v>
       </c>
@@ -9161,7 +9111,7 @@
         <v>848.7</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="26">
         <v>127</v>
       </c>
@@ -9199,7 +9149,7 @@
         <v>848.7</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="26">
         <v>128</v>
       </c>
@@ -9234,7 +9184,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="26">
         <v>129</v>
       </c>
@@ -9272,7 +9222,7 @@
         <v>1643.4</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="26"/>
       <c r="B162" s="27"/>
       <c r="C162" s="2"/>
@@ -9289,7 +9239,7 @@
       <c r="L162" s="5"/>
       <c r="M162" s="13"/>
     </row>
-    <row r="163" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="26"/>
       <c r="B163" s="38" t="s">
         <v>137</v>
@@ -9308,7 +9258,7 @@
       <c r="L163" s="5"/>
       <c r="M163" s="13"/>
     </row>
-    <row r="164" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="26">
         <v>130</v>
       </c>
@@ -9343,7 +9293,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="26"/>
       <c r="B165" s="36" t="s">
         <v>118</v>
@@ -9371,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="26">
         <v>131</v>
       </c>
@@ -9408,7 +9358,7 @@
         <v>8280</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="26">
         <v>132</v>
       </c>
@@ -9445,7 +9395,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="26">
         <v>133</v>
       </c>
@@ -9480,7 +9430,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="26">
         <v>134</v>
       </c>
@@ -9518,7 +9468,7 @@
         <v>856.56</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="26">
         <v>135</v>
       </c>
@@ -9556,7 +9506,7 @@
         <v>856.56</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="26">
         <v>136</v>
       </c>
@@ -9594,7 +9544,7 @@
         <v>794.96249999999986</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="26">
         <v>137</v>
       </c>
@@ -9632,7 +9582,7 @@
         <v>856.56</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="26">
         <v>138</v>
       </c>
@@ -9670,7 +9620,7 @@
         <v>794.96249999999986</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="26">
         <v>139</v>
       </c>
@@ -9706,7 +9656,7 @@
         <v>1805.9999999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="26">
         <v>140</v>
       </c>
@@ -9744,7 +9694,7 @@
         <v>485.52</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="26">
         <v>141</v>
       </c>
@@ -9779,7 +9729,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="26"/>
       <c r="B177" s="38" t="s">
         <v>150</v>
@@ -9796,7 +9746,7 @@
       <c r="L177" s="5"/>
       <c r="M177" s="13"/>
     </row>
-    <row r="178" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="26"/>
       <c r="B178" s="38" t="s">
         <v>151</v>
@@ -9813,7 +9763,7 @@
       <c r="L178" s="5"/>
       <c r="M178" s="13"/>
     </row>
-    <row r="179" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="26">
         <v>142</v>
       </c>
@@ -9850,7 +9800,7 @@
         <v>4242</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="26">
         <v>143</v>
       </c>
@@ -9885,7 +9835,7 @@
         <v>1060.5</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="26">
         <v>144</v>
       </c>
@@ -9920,7 +9870,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="26"/>
       <c r="B182" s="38" t="s">
         <v>153</v>
@@ -9937,7 +9887,7 @@
       <c r="L182" s="5"/>
       <c r="M182" s="13"/>
     </row>
-    <row r="183" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="26">
         <v>145</v>
       </c>
@@ -9974,7 +9924,7 @@
         <v>1159.2</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="26">
         <v>146</v>
       </c>
@@ -10010,7 +9960,7 @@
         <v>289.8</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="26">
         <v>147</v>
       </c>
@@ -10045,7 +9995,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="26"/>
       <c r="B186" s="39" t="s">
         <v>154</v>
@@ -10065,7 +10015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="26">
         <v>148</v>
       </c>
@@ -10102,7 +10052,7 @@
         <v>3332.4</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="26">
         <v>149</v>
       </c>
@@ -10137,7 +10087,7 @@
         <v>833.1</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="26">
         <v>150</v>
       </c>
@@ -10172,7 +10122,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="26"/>
       <c r="B190" s="27"/>
       <c r="C190" s="2"/>
@@ -10187,7 +10137,7 @@
       <c r="L190" s="5"/>
       <c r="M190" s="13"/>
     </row>
-    <row r="191" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="26"/>
       <c r="B191" s="38" t="s">
         <v>156</v>
@@ -10204,7 +10154,7 @@
       <c r="L191" s="5"/>
       <c r="M191" s="13"/>
     </row>
-    <row r="192" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="26">
         <v>151</v>
       </c>
@@ -10241,7 +10191,7 @@
         <v>16766.25</v>
       </c>
     </row>
-    <row r="193" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="26">
         <v>152</v>
       </c>
@@ -10277,7 +10227,7 @@
         <v>11668.8</v>
       </c>
     </row>
-    <row r="194" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="26">
         <v>153</v>
       </c>
@@ -10312,7 +10262,7 @@
         <v>1750.65</v>
       </c>
     </row>
-    <row r="195" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="26">
         <v>154</v>
       </c>
@@ -10347,7 +10297,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="196" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="26"/>
       <c r="B196" s="44" t="s">
         <v>210</v>
@@ -10364,7 +10314,7 @@
       <c r="L196" s="5"/>
       <c r="M196" s="13"/>
     </row>
-    <row r="197" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="26">
         <v>155</v>
       </c>
@@ -10394,7 +10344,7 @@
         <v>2250</v>
       </c>
       <c r="L197" s="5">
-        <f>I197*G197</f>
+        <f t="shared" ref="L197:L211" si="67">I197*G197</f>
         <v>0</v>
       </c>
       <c r="M197" s="13">
@@ -10402,7 +10352,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="198" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="26">
         <v>156</v>
       </c>
@@ -10425,22 +10375,22 @@
       </c>
       <c r="I198" s="5"/>
       <c r="J198" s="2">
-        <f t="shared" ref="J198:J230" si="67">I198+H198</f>
+        <f t="shared" ref="J198:J230" si="68">I198+H198</f>
         <v>13</v>
       </c>
       <c r="K198" s="2">
         <v>3250</v>
       </c>
       <c r="L198" s="5">
-        <f>I198*G198</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M198" s="13">
-        <f t="shared" ref="M198:M363" si="68">L198+K198</f>
+        <f t="shared" ref="M198:M363" si="69">L198+K198</f>
         <v>3250</v>
       </c>
     </row>
-    <row r="199" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="26">
         <v>157</v>
       </c>
@@ -10463,22 +10413,22 @@
       </c>
       <c r="I199" s="5"/>
       <c r="J199" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>16</v>
       </c>
       <c r="K199" s="2">
         <v>4000</v>
       </c>
       <c r="L199" s="5">
-        <f>I199*G199</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M199" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>4000</v>
       </c>
     </row>
-    <row r="200" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="26">
         <v>158</v>
       </c>
@@ -10501,22 +10451,22 @@
       </c>
       <c r="I200" s="5"/>
       <c r="J200" s="2">
-        <f t="shared" ref="J200" si="69">I200+H200</f>
+        <f t="shared" ref="J200" si="70">I200+H200</f>
         <v>16</v>
       </c>
       <c r="K200" s="2">
         <v>4000</v>
       </c>
       <c r="L200" s="5">
-        <f>I200*G200</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M200" s="13">
-        <f t="shared" ref="M200" si="70">L200+K200</f>
+        <f t="shared" ref="M200" si="71">L200+K200</f>
         <v>4000</v>
       </c>
     </row>
-    <row r="201" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="26"/>
       <c r="B201" s="27"/>
       <c r="C201" s="2"/>
@@ -10530,20 +10480,20 @@
         <v>0</v>
       </c>
       <c r="J201" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="K201" s="2"/>
       <c r="L201" s="5">
-        <f>I201*G201</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M201" s="13">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="26"/>
       <c r="B202" s="38" t="s">
         <v>183</v>
@@ -10559,20 +10509,20 @@
         <v>0</v>
       </c>
       <c r="J202" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="5">
-        <f>I202*G202</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M202" s="13">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="26">
         <v>159</v>
       </c>
@@ -10595,22 +10545,22 @@
       </c>
       <c r="I203" s="5"/>
       <c r="J203" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>238.26</v>
       </c>
       <c r="K203" s="2">
         <v>25017.3</v>
       </c>
       <c r="L203" s="5">
-        <f>I203*G203</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M203" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>25017.3</v>
       </c>
     </row>
-    <row r="204" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="26">
         <v>160</v>
       </c>
@@ -10633,23 +10583,23 @@
       </c>
       <c r="I204" s="76"/>
       <c r="J204" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>238.26</v>
       </c>
       <c r="K204" s="2">
         <v>15486.9</v>
       </c>
       <c r="L204" s="5">
-        <f>I204*G204</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M204" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>15486.9</v>
       </c>
       <c r="N204" s="41"/>
     </row>
-    <row r="205" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A205" s="26">
         <v>161</v>
       </c>
@@ -10672,23 +10622,23 @@
       </c>
       <c r="I205" s="76"/>
       <c r="J205" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>332.91</v>
       </c>
       <c r="K205" s="2">
         <v>6325.29</v>
       </c>
       <c r="L205" s="5">
-        <f>I205*G205</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M205" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>6325.29</v>
       </c>
       <c r="N205" s="41"/>
     </row>
-    <row r="206" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="26">
         <v>162</v>
       </c>
@@ -10711,22 +10661,22 @@
       </c>
       <c r="I206" s="5"/>
       <c r="J206" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>102.57</v>
       </c>
       <c r="K206" s="2">
         <v>11795.55</v>
       </c>
       <c r="L206" s="5">
-        <f>I206*G206</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M206" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>11795.55</v>
       </c>
     </row>
-    <row r="207" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="26">
         <v>163</v>
       </c>
@@ -10752,22 +10702,22 @@
         <v>0</v>
       </c>
       <c r="J207" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>94.65</v>
       </c>
       <c r="K207" s="2">
         <v>8045.2500000000009</v>
       </c>
       <c r="L207" s="5">
-        <f>I207*G207</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M207" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>8045.2500000000009</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" s="26">
         <v>164</v>
       </c>
@@ -10793,22 +10743,22 @@
         <v>0</v>
       </c>
       <c r="J208" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>79.14</v>
       </c>
       <c r="K208" s="2">
         <v>5144.1000000000004</v>
       </c>
       <c r="L208" s="5">
-        <f>I208*G208</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M208" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>5144.1000000000004</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" s="26">
         <v>165</v>
       </c>
@@ -10831,22 +10781,22 @@
       </c>
       <c r="I209" s="5"/>
       <c r="J209" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>238.26</v>
       </c>
       <c r="K209" s="2">
         <v>5241.7199999999993</v>
       </c>
       <c r="L209" s="5">
-        <f>I209*G209</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M209" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>5241.7199999999993</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="26"/>
       <c r="B210" s="38" t="s">
         <v>182</v>
@@ -10862,20 +10812,20 @@
         <v>0</v>
       </c>
       <c r="J210" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="5">
-        <f>I210*G210</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M210" s="13">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="26"/>
       <c r="B211" s="43" t="s">
         <v>184</v>
@@ -10891,20 +10841,20 @@
         <v>0</v>
       </c>
       <c r="J211" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="K211" s="2"/>
       <c r="L211" s="5">
-        <f>I211*G211</f>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="M211" s="13">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="26">
         <v>166</v>
       </c>
@@ -10927,7 +10877,7 @@
       </c>
       <c r="I212" s="5"/>
       <c r="J212" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>19.5</v>
       </c>
       <c r="K212" s="2">
@@ -10935,11 +10885,11 @@
       </c>
       <c r="L212" s="5"/>
       <c r="M212" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>500</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="26">
         <v>167</v>
       </c>
@@ -10964,7 +10914,7 @@
       </c>
       <c r="I213" s="5"/>
       <c r="J213" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>8.76</v>
       </c>
       <c r="K213" s="2">
@@ -10972,11 +10922,11 @@
       </c>
       <c r="L213" s="5"/>
       <c r="M213" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1051.1999999999998</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="26"/>
       <c r="B214" s="43" t="s">
         <v>188</v>
@@ -10992,7 +10942,7 @@
         <v>0</v>
       </c>
       <c r="J214" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="K214" s="2"/>
@@ -11001,11 +10951,11 @@
         <v>0</v>
       </c>
       <c r="M214" s="13">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="26">
         <v>168</v>
       </c>
@@ -11028,7 +10978,7 @@
       </c>
       <c r="I215" s="5"/>
       <c r="J215" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>5.67</v>
       </c>
       <c r="K215" s="2">
@@ -11036,11 +10986,11 @@
       </c>
       <c r="L215" s="5"/>
       <c r="M215" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>680.4</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="26">
         <v>169</v>
       </c>
@@ -11063,7 +11013,7 @@
       </c>
       <c r="I216" s="5"/>
       <c r="J216" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="K216" s="2">
@@ -11074,11 +11024,11 @@
         <v>0</v>
       </c>
       <c r="M216" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>500</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="26">
         <v>170</v>
       </c>
@@ -11101,7 +11051,7 @@
       </c>
       <c r="I217" s="5"/>
       <c r="J217" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="K217" s="2">
@@ -11109,11 +11059,11 @@
       </c>
       <c r="L217" s="5"/>
       <c r="M217" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>250</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="26"/>
       <c r="B218" s="43" t="s">
         <v>193</v>
@@ -11129,7 +11079,7 @@
         <v>0</v>
       </c>
       <c r="J218" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="K218" s="2"/>
@@ -11138,11 +11088,11 @@
         <v>0</v>
       </c>
       <c r="M218" s="13">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="26">
         <v>171</v>
       </c>
@@ -11167,7 +11117,7 @@
       </c>
       <c r="I219" s="5"/>
       <c r="J219" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>69</v>
       </c>
       <c r="K219" s="2">
@@ -11175,11 +11125,11 @@
       </c>
       <c r="L219" s="5"/>
       <c r="M219" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>8280</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="26">
         <v>172</v>
       </c>
@@ -11204,7 +11154,7 @@
       </c>
       <c r="I220" s="5"/>
       <c r="J220" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>21.4</v>
       </c>
       <c r="K220" s="2">
@@ -11212,11 +11162,11 @@
       </c>
       <c r="L220" s="5"/>
       <c r="M220" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>2140</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="26">
         <v>173</v>
       </c>
@@ -11239,7 +11189,7 @@
       </c>
       <c r="I221" s="5"/>
       <c r="J221" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="K221" s="2">
@@ -11247,11 +11197,11 @@
       </c>
       <c r="L221" s="5"/>
       <c r="M221" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>500</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="26"/>
       <c r="B222" s="43" t="s">
         <v>197</v>
@@ -11267,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J222" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="K222" s="2"/>
@@ -11276,11 +11226,11 @@
         <v>0</v>
       </c>
       <c r="M222" s="13">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="26">
         <v>174</v>
       </c>
@@ -11305,7 +11255,7 @@
       </c>
       <c r="I223" s="5"/>
       <c r="J223" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>11</v>
       </c>
       <c r="K223" s="2">
@@ -11313,11 +11263,11 @@
       </c>
       <c r="L223" s="5"/>
       <c r="M223" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1320</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="26">
         <v>175</v>
       </c>
@@ -11340,7 +11290,7 @@
       </c>
       <c r="I224" s="5"/>
       <c r="J224" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="K224" s="2">
@@ -11351,11 +11301,11 @@
         <v>0</v>
       </c>
       <c r="M224" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>250</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="26"/>
       <c r="B225" s="27"/>
       <c r="C225" s="2"/>
@@ -11369,7 +11319,7 @@
         <v>0</v>
       </c>
       <c r="J225" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="K225" s="2"/>
@@ -11378,11 +11328,11 @@
         <v>0</v>
       </c>
       <c r="M225" s="13">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="26"/>
       <c r="B226" s="43" t="s">
         <v>199</v>
@@ -11398,7 +11348,7 @@
         <v>0</v>
       </c>
       <c r="J226" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="K226" s="2"/>
@@ -11407,11 +11357,11 @@
         <v>0</v>
       </c>
       <c r="M226" s="13">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="26">
         <v>176</v>
       </c>
@@ -11436,7 +11386,7 @@
       </c>
       <c r="I227" s="5"/>
       <c r="J227" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>43.32</v>
       </c>
       <c r="K227" s="2">
@@ -11444,11 +11394,11 @@
       </c>
       <c r="L227" s="5"/>
       <c r="M227" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>5198.3999999999996</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="26">
         <v>177</v>
       </c>
@@ -11473,7 +11423,7 @@
       </c>
       <c r="I228" s="5"/>
       <c r="J228" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>12.82</v>
       </c>
       <c r="K228" s="2">
@@ -11481,11 +11431,11 @@
       </c>
       <c r="L228" s="5"/>
       <c r="M228" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>1282</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="26">
         <v>178</v>
       </c>
@@ -11508,7 +11458,7 @@
       </c>
       <c r="I229" s="5"/>
       <c r="J229" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="K229" s="2">
@@ -11519,11 +11469,11 @@
         <v>0</v>
       </c>
       <c r="M229" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>250</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="26">
         <v>179</v>
       </c>
@@ -11546,7 +11496,7 @@
       </c>
       <c r="I230" s="5"/>
       <c r="J230" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>1</v>
       </c>
       <c r="K230" s="2">
@@ -11554,11 +11504,11 @@
       </c>
       <c r="L230" s="5"/>
       <c r="M230" s="13">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>500</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="26"/>
       <c r="B231" s="27"/>
       <c r="C231" s="2"/>
@@ -11573,7 +11523,7 @@
       <c r="L231" s="5"/>
       <c r="M231" s="13"/>
     </row>
-    <row r="232" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="26"/>
       <c r="B232" s="43" t="s">
         <v>203</v>
@@ -11590,7 +11540,7 @@
       <c r="L232" s="5"/>
       <c r="M232" s="13"/>
     </row>
-    <row r="233" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="26">
         <v>180</v>
       </c>
@@ -11628,7 +11578,7 @@
         <v>594.15</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="26">
         <v>181</v>
       </c>
@@ -11651,7 +11601,7 @@
       </c>
       <c r="I234" s="5"/>
       <c r="J234" s="2">
-        <f t="shared" ref="J234:J240" si="71">I234+H234</f>
+        <f t="shared" ref="J234:J240" si="72">I234+H234</f>
         <v>1</v>
       </c>
       <c r="K234" s="2">
@@ -11659,11 +11609,11 @@
       </c>
       <c r="L234" s="5"/>
       <c r="M234" s="13">
-        <f t="shared" ref="M234:M235" si="72">L234+K234</f>
+        <f t="shared" ref="M234:M235" si="73">L234+K234</f>
         <v>250</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="26"/>
       <c r="B235" s="43" t="s">
         <v>205</v>
@@ -11676,7 +11626,7 @@
       <c r="H235" s="24"/>
       <c r="I235" s="5"/>
       <c r="J235" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="K235" s="2"/>
@@ -11685,11 +11635,11 @@
         <v>0</v>
       </c>
       <c r="M235" s="13">
-        <f t="shared" si="72"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="26">
         <v>182</v>
       </c>
@@ -11726,7 +11676,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="26">
         <v>183</v>
       </c>
@@ -11749,7 +11699,7 @@
       </c>
       <c r="I237" s="5"/>
       <c r="J237" s="2">
-        <f t="shared" ref="J237" si="73">I237+H237</f>
+        <f t="shared" ref="J237" si="74">I237+H237</f>
         <v>1</v>
       </c>
       <c r="K237" s="2">
@@ -11757,11 +11707,11 @@
       </c>
       <c r="L237" s="5"/>
       <c r="M237" s="13">
-        <f t="shared" ref="M237" si="74">L237+K237</f>
+        <f t="shared" ref="M237" si="75">L237+K237</f>
         <v>250</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="26"/>
       <c r="B238" s="27"/>
       <c r="C238" s="2"/>
@@ -11772,7 +11722,7 @@
       <c r="H238" s="24"/>
       <c r="I238" s="5"/>
       <c r="J238" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="K238" s="2"/>
@@ -11782,7 +11732,7 @@
       </c>
       <c r="M238" s="13"/>
     </row>
-    <row r="239" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="26">
         <v>184</v>
       </c>
@@ -11807,7 +11757,7 @@
       </c>
       <c r="I239" s="5"/>
       <c r="J239" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>11.25</v>
       </c>
       <c r="K239" s="2">
@@ -11819,7 +11769,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="26">
         <v>185</v>
       </c>
@@ -11842,7 +11792,7 @@
       </c>
       <c r="I240" s="5"/>
       <c r="J240" s="2">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="K240" s="2">
@@ -11853,7 +11803,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="26"/>
       <c r="B241" s="46"/>
       <c r="C241" s="2"/>
@@ -11868,7 +11818,7 @@
       <c r="L241" s="5"/>
       <c r="M241" s="13"/>
     </row>
-    <row r="242" spans="1:13" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" s="86" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="80"/>
       <c r="B242" s="81" t="s">
         <v>213</v>
@@ -11885,7 +11835,7 @@
       <c r="L242" s="82"/>
       <c r="M242" s="85"/>
     </row>
-    <row r="243" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="26"/>
       <c r="B243" s="52" t="s">
         <v>214</v>
@@ -11902,7 +11852,7 @@
       <c r="L243" s="5"/>
       <c r="M243" s="13"/>
     </row>
-    <row r="244" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="26">
         <v>186</v>
       </c>
@@ -11939,7 +11889,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="26" t="s">
         <v>237</v>
       </c>
@@ -11978,7 +11928,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="26" t="s">
         <v>280</v>
       </c>
@@ -12014,7 +11964,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="26" t="s">
         <v>353</v>
       </c>
@@ -12034,7 +11984,8 @@
       </c>
       <c r="H247" s="24"/>
       <c r="I247" s="5">
-        <v>2</v>
+        <f>80%*2</f>
+        <v>1.6</v>
       </c>
       <c r="J247" s="2">
         <v>1</v>
@@ -12044,14 +11995,14 @@
       </c>
       <c r="L247" s="5">
         <f>I247*G247</f>
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="M247" s="13">
         <f>L247+K247</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="26"/>
       <c r="B248" s="52" t="s">
         <v>216</v>
@@ -12068,7 +12019,7 @@
       <c r="L248" s="5"/>
       <c r="M248" s="13"/>
     </row>
-    <row r="249" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="26">
         <v>187</v>
       </c>
@@ -12105,7 +12056,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="26" t="s">
         <v>238</v>
       </c>
@@ -12144,7 +12095,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="26" t="s">
         <v>282</v>
       </c>
@@ -12180,7 +12131,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="26" t="s">
         <v>353</v>
       </c>
@@ -12200,7 +12151,8 @@
       </c>
       <c r="H252" s="24"/>
       <c r="I252" s="5">
-        <v>2</v>
+        <f>80%*2</f>
+        <v>1.6</v>
       </c>
       <c r="J252" s="2">
         <v>1</v>
@@ -12210,14 +12162,14 @@
       </c>
       <c r="L252" s="5">
         <f>I252*G252</f>
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="M252" s="13">
         <f>L252+K252</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="26"/>
       <c r="B253" s="52" t="s">
         <v>217</v>
@@ -12233,11 +12185,11 @@
       <c r="K253" s="2"/>
       <c r="L253" s="5"/>
       <c r="M253" s="13">
-        <f t="shared" ref="M253:M254" si="75">L253+K253</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M253:M254" si="76">L253+K253</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A254" s="26">
         <v>188</v>
       </c>
@@ -12273,11 +12225,11 @@
         <v>0</v>
       </c>
       <c r="M254" s="13">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>4761</v>
       </c>
     </row>
-    <row r="255" spans="1:13" s="66" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:13" s="66" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="60" t="s">
         <v>241</v>
       </c>
@@ -12313,11 +12265,11 @@
         <v>0</v>
       </c>
       <c r="M255" s="65">
-        <f t="shared" ref="M255:M258" si="76">L255+K255</f>
+        <f t="shared" ref="M255:M258" si="77">L255+K255</f>
         <v>1120</v>
       </c>
     </row>
-    <row r="256" spans="1:13" s="66" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:13" s="66" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="60" t="s">
         <v>242</v>
       </c>
@@ -12352,11 +12304,11 @@
         <v>0</v>
       </c>
       <c r="M256" s="65">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="257" spans="1:15" s="66" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:15" s="66" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="60" t="s">
         <v>256</v>
       </c>
@@ -12388,15 +12340,15 @@
         <v>960</v>
       </c>
       <c r="L257" s="5">
-        <f>I257*G257</f>
+        <f t="shared" ref="L257:L270" si="78">I257*G257</f>
         <v>0</v>
       </c>
       <c r="M257" s="65">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>960</v>
       </c>
     </row>
-    <row r="258" spans="1:15" s="66" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:15" s="66" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="60" t="s">
         <v>257</v>
       </c>
@@ -12421,22 +12373,22 @@
         <v>0</v>
       </c>
       <c r="J258" s="2">
-        <f t="shared" ref="J258" si="77">I258+H258</f>
+        <f t="shared" ref="J258" si="79">I258+H258</f>
         <v>4</v>
       </c>
       <c r="K258" s="2">
         <v>580</v>
       </c>
       <c r="L258" s="5">
-        <f>I258*G258</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="M258" s="65">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>580</v>
       </c>
     </row>
-    <row r="259" spans="1:15" s="66" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:15" s="66" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="60" t="s">
         <v>258</v>
       </c>
@@ -12458,29 +12410,29 @@
         <v>1</v>
       </c>
       <c r="I259" s="5">
-        <f>1</f>
-        <v>1</v>
+        <f>80%*1</f>
+        <v>0.8</v>
       </c>
       <c r="J259" s="2">
-        <f t="shared" ref="J259" si="78">I259+H259</f>
-        <v>2</v>
+        <f t="shared" ref="J259" si="80">I259+H259</f>
+        <v>1.8</v>
       </c>
       <c r="K259" s="2">
         <v>130</v>
       </c>
       <c r="L259" s="5">
-        <f>I259*G259</f>
-        <v>130</v>
+        <f t="shared" si="78"/>
+        <v>104</v>
       </c>
       <c r="M259" s="65">
-        <f t="shared" ref="M259" si="79">L259+K259</f>
-        <v>260</v>
+        <f>L259+K259</f>
+        <v>234</v>
       </c>
       <c r="N259" s="66" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="260" spans="1:15" s="66" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:15" s="66" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="60" t="s">
         <v>260</v>
       </c>
@@ -12505,23 +12457,23 @@
         <v>0</v>
       </c>
       <c r="J260" s="2">
-        <f t="shared" ref="J260" si="80">I260+H260</f>
+        <f t="shared" ref="J260" si="81">I260+H260</f>
         <v>1</v>
       </c>
       <c r="K260" s="2">
         <v>170</v>
       </c>
       <c r="L260" s="5">
-        <f>I260*G260</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="M260" s="65">
-        <f t="shared" ref="M260" si="81">L260+K260</f>
+        <f t="shared" ref="M260" si="82">L260+K260</f>
         <v>170</v>
       </c>
       <c r="O260" s="67"/>
     </row>
-    <row r="261" spans="1:15" s="66" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:15" s="66" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A261" s="60" t="s">
         <v>261</v>
       </c>
@@ -12547,23 +12499,23 @@
         <v>0</v>
       </c>
       <c r="J261" s="62">
-        <f t="shared" ref="J261:J268" si="82">I261+H261</f>
+        <f t="shared" ref="J261:J268" si="83">I261+H261</f>
         <v>23.85</v>
       </c>
       <c r="K261" s="62">
         <v>954</v>
       </c>
       <c r="L261" s="5">
-        <f>I261*G261</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="M261" s="65">
-        <f t="shared" ref="M261" si="83">L261+K261</f>
+        <f t="shared" ref="M261" si="84">L261+K261</f>
         <v>954</v>
       </c>
       <c r="O261" s="67"/>
     </row>
-    <row r="262" spans="1:15" s="66" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:15" s="66" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="60" t="s">
         <v>262</v>
       </c>
@@ -12588,23 +12540,23 @@
         <v>0</v>
       </c>
       <c r="J262" s="62">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1.8</v>
       </c>
       <c r="K262" s="62">
         <v>144</v>
       </c>
       <c r="L262" s="5">
-        <f>I262*G262</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="M262" s="65">
-        <f t="shared" ref="M262" si="84">L262+K262</f>
+        <f t="shared" ref="M262" si="85">L262+K262</f>
         <v>144</v>
       </c>
       <c r="O262" s="67"/>
     </row>
-    <row r="263" spans="1:15" s="66" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:15" s="66" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="60" t="s">
         <v>263</v>
       </c>
@@ -12629,23 +12581,23 @@
         <v>0</v>
       </c>
       <c r="J263" s="62">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>5</v>
       </c>
       <c r="K263" s="62">
         <v>675</v>
       </c>
       <c r="L263" s="5">
-        <f>I263*G263</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="M263" s="65">
-        <f t="shared" ref="M263" si="85">L263+K263</f>
+        <f t="shared" ref="M263" si="86">L263+K263</f>
         <v>675</v>
       </c>
       <c r="O263" s="67"/>
     </row>
-    <row r="264" spans="1:15" s="66" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:15" s="66" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="60" t="s">
         <v>286</v>
       </c>
@@ -12670,23 +12622,23 @@
         <v>0</v>
       </c>
       <c r="J264" s="62">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>2.35</v>
       </c>
       <c r="K264" s="62">
         <v>376</v>
       </c>
       <c r="L264" s="5">
-        <f>I264*G264</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="M264" s="65">
-        <f t="shared" ref="M264:M266" si="86">L264+K264</f>
+        <f t="shared" ref="M264:M266" si="87">L264+K264</f>
         <v>376</v>
       </c>
       <c r="O264" s="67"/>
     </row>
-    <row r="265" spans="1:15" s="66" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:15" s="66" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="60" t="s">
         <v>287</v>
       </c>
@@ -12711,23 +12663,23 @@
         <v>0</v>
       </c>
       <c r="J265" s="62">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1.8</v>
       </c>
       <c r="K265" s="62">
         <v>144</v>
       </c>
       <c r="L265" s="5">
-        <f>I265*G265</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="M265" s="65">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>144</v>
       </c>
       <c r="O265" s="67"/>
     </row>
-    <row r="266" spans="1:15" s="66" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:15" s="66" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="60" t="s">
         <v>291</v>
       </c>
@@ -12752,23 +12704,23 @@
         <v>0</v>
       </c>
       <c r="J266" s="62">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>1</v>
       </c>
       <c r="K266" s="62">
         <v>2500</v>
       </c>
       <c r="L266" s="5">
-        <f>I266*G266</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="M266" s="65">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>2500</v>
       </c>
       <c r="O266" s="67"/>
     </row>
-    <row r="267" spans="1:15" s="66" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:15" s="66" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A267" s="60" t="s">
         <v>292</v>
       </c>
@@ -12793,23 +12745,23 @@
         <v>0</v>
       </c>
       <c r="J267" s="62">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>40.65</v>
       </c>
       <c r="K267" s="62">
         <v>6504</v>
       </c>
       <c r="L267" s="5">
-        <f>I267*G267</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="M267" s="65">
-        <f t="shared" ref="M267:M268" si="87">L267+K267</f>
+        <f t="shared" ref="M267:M268" si="88">L267+K267</f>
         <v>6504</v>
       </c>
       <c r="O267" s="67"/>
     </row>
-    <row r="268" spans="1:15" s="66" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:15" s="66" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="60" t="s">
         <v>294</v>
       </c>
@@ -12834,23 +12786,23 @@
         <v>0</v>
       </c>
       <c r="J268" s="62">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="K268" s="62">
         <v>368</v>
       </c>
       <c r="L268" s="5">
-        <f>I268*G268</f>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="M268" s="65">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>368</v>
       </c>
       <c r="O268" s="67"/>
     </row>
-    <row r="269" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="60" t="s">
         <v>349</v>
       </c>
@@ -12870,26 +12822,27 @@
       </c>
       <c r="H269" s="64"/>
       <c r="I269" s="5">
-        <v>7</v>
+        <f>80%*7</f>
+        <v>5.6000000000000005</v>
       </c>
       <c r="J269" s="62">
-        <f t="shared" ref="J269" si="88">I269+H269</f>
-        <v>7</v>
+        <f t="shared" ref="J269" si="89">I269+H269</f>
+        <v>5.6000000000000005</v>
       </c>
       <c r="K269" s="62">
         <v>0</v>
       </c>
       <c r="L269" s="5">
-        <f>I269*G269</f>
-        <v>490</v>
+        <f t="shared" si="78"/>
+        <v>392.00000000000006</v>
       </c>
       <c r="M269" s="65">
-        <f t="shared" ref="M269" si="89">L269+K269</f>
-        <v>490</v>
+        <f t="shared" ref="M269" si="90">L269+K269</f>
+        <v>392.00000000000006</v>
       </c>
       <c r="O269" s="67"/>
     </row>
-    <row r="270" spans="1:15" s="66" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:15" s="66" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="60" t="s">
         <v>350</v>
       </c>
@@ -12907,26 +12860,27 @@
       </c>
       <c r="H270" s="64"/>
       <c r="I270" s="5">
-        <v>4</v>
+        <f>80%*4</f>
+        <v>3.2</v>
       </c>
       <c r="J270" s="62">
-        <f t="shared" ref="J270" si="90">I270+H270</f>
-        <v>4</v>
+        <f t="shared" ref="J270" si="91">I270+H270</f>
+        <v>3.2</v>
       </c>
       <c r="K270" s="62">
         <v>0</v>
       </c>
       <c r="L270" s="5">
-        <f>I270*G270</f>
-        <v>360</v>
+        <f t="shared" si="78"/>
+        <v>288</v>
       </c>
       <c r="M270" s="65">
-        <f t="shared" ref="M270" si="91">L270+K270</f>
-        <v>360</v>
+        <f t="shared" ref="M270" si="92">L270+K270</f>
+        <v>288</v>
       </c>
       <c r="O270" s="67"/>
     </row>
-    <row r="271" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="26"/>
       <c r="B271" s="52" t="s">
         <v>218</v>
@@ -12943,7 +12897,7 @@
       <c r="L271" s="5"/>
       <c r="M271" s="13"/>
     </row>
-    <row r="272" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="26">
         <v>189</v>
       </c>
@@ -12964,29 +12918,30 @@
       <c r="H272" s="24">
         <v>0.5</v>
       </c>
-      <c r="I272" s="123">
-        <v>0.4</v>
+      <c r="I272" s="95">
+        <f>80%*0.4</f>
+        <v>0.32000000000000006</v>
       </c>
       <c r="J272" s="62">
         <f>I272+H272</f>
-        <v>0.9</v>
+        <v>0.82000000000000006</v>
       </c>
       <c r="K272" s="2">
         <v>1576.5</v>
       </c>
       <c r="L272" s="5">
-        <f>I272*G272</f>
-        <v>1261.2</v>
+        <f t="shared" ref="L272:L277" si="93">I272*G272</f>
+        <v>1008.9600000000002</v>
       </c>
       <c r="M272" s="13">
         <f>L272+K272</f>
-        <v>2837.7</v>
+        <v>2585.46</v>
       </c>
       <c r="N272" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="273" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="26" t="s">
         <v>342</v>
       </c>
@@ -13018,15 +12973,15 @@
         <v>627</v>
       </c>
       <c r="L273" s="5">
-        <f>I273*G273</f>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M273" s="65">
-        <f t="shared" ref="M273" si="92">L273+K273</f>
+        <f t="shared" ref="M273" si="94">L273+K273</f>
         <v>627</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274" s="26" t="s">
         <v>343</v>
       </c>
@@ -13046,29 +13001,29 @@
         <v>1</v>
       </c>
       <c r="I274" s="5">
-        <f>3</f>
-        <v>3</v>
+        <f>80%*3</f>
+        <v>2.4000000000000004</v>
       </c>
       <c r="J274" s="2">
-        <f t="shared" ref="J274" si="93">I274+H274</f>
-        <v>4</v>
+        <f t="shared" ref="J274" si="95">I274+H274</f>
+        <v>3.4000000000000004</v>
       </c>
       <c r="K274" s="2">
         <v>160</v>
       </c>
       <c r="L274" s="5">
-        <f>I274*G274</f>
-        <v>480</v>
+        <f t="shared" si="93"/>
+        <v>384.00000000000006</v>
       </c>
       <c r="M274" s="65">
-        <f t="shared" ref="M274:M276" si="94">L274+K274</f>
-        <v>640</v>
+        <f t="shared" ref="M274:M276" si="96">L274+K274</f>
+        <v>544</v>
       </c>
       <c r="N274" s="66" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275" s="26" t="s">
         <v>344</v>
       </c>
@@ -13098,15 +13053,15 @@
         <v>130</v>
       </c>
       <c r="L275" s="5">
-        <f>I275*G275</f>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M275" s="65">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>130</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276" s="26" t="s">
         <v>345</v>
       </c>
@@ -13136,15 +13091,15 @@
         <v>280</v>
       </c>
       <c r="L276" s="5">
-        <f>I276*G276</f>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M276" s="65">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>280</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277" s="26" t="s">
         <v>346</v>
       </c>
@@ -13162,25 +13117,26 @@
       </c>
       <c r="H277" s="24"/>
       <c r="I277" s="5">
-        <v>4</v>
+        <f>80%*4</f>
+        <v>3.2</v>
       </c>
       <c r="J277" s="2">
         <f>I277+H277</f>
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="K277" s="2">
         <v>0</v>
       </c>
       <c r="L277" s="5">
-        <f>I277*G277</f>
-        <v>280</v>
+        <f t="shared" si="93"/>
+        <v>224</v>
       </c>
       <c r="M277" s="65">
-        <f t="shared" ref="M277" si="95">L277+K277</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="278" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M277" si="97">L277+K277</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="26"/>
       <c r="B278" s="52" t="s">
         <v>219</v>
@@ -13197,7 +13153,7 @@
       <c r="L278" s="5"/>
       <c r="M278" s="13"/>
     </row>
-    <row r="279" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="26">
         <v>190</v>
       </c>
@@ -13232,12 +13188,12 @@
         <v>0</v>
       </c>
       <c r="M279" s="13">
-        <f t="shared" ref="M279:M280" si="96">L279+K279</f>
+        <f t="shared" ref="M279:M280" si="98">L279+K279</f>
         <v>16696</v>
       </c>
       <c r="O279" s="47"/>
     </row>
-    <row r="280" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="26" t="s">
         <v>243</v>
       </c>
@@ -13267,16 +13223,16 @@
         <v>3850</v>
       </c>
       <c r="L280" s="5">
-        <f>I280*G280</f>
+        <f t="shared" ref="L280:L288" si="99">I280*G280</f>
         <v>0</v>
       </c>
       <c r="M280" s="65">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>3850</v>
       </c>
       <c r="O280" s="47"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281" s="26" t="s">
         <v>245</v>
       </c>
@@ -13306,16 +13262,16 @@
         <v>910</v>
       </c>
       <c r="L281" s="5">
-        <f>I281*G281</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="M281" s="65">
-        <f t="shared" ref="M281:M285" si="97">L281+K281</f>
+        <f t="shared" ref="M281:M285" si="100">L281+K281</f>
         <v>910</v>
       </c>
       <c r="O281" s="47"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282" s="26" t="s">
         <v>246</v>
       </c>
@@ -13338,23 +13294,23 @@
         <v>0</v>
       </c>
       <c r="J282" s="2">
-        <f t="shared" ref="J282:J284" si="98">I282+H282</f>
+        <f t="shared" ref="J282:J284" si="101">I282+H282</f>
         <v>2</v>
       </c>
       <c r="K282" s="2">
         <v>290</v>
       </c>
       <c r="L282" s="5">
-        <f>I282*G282</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="M282" s="65">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>290</v>
       </c>
       <c r="O282" s="47"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283" s="26" t="s">
         <v>247</v>
       </c>
@@ -13377,23 +13333,23 @@
         <v>0</v>
       </c>
       <c r="J283" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>8</v>
       </c>
       <c r="K283" s="2">
         <v>1280</v>
       </c>
       <c r="L283" s="5">
-        <f>I283*G283</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="M283" s="65">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>1280</v>
       </c>
       <c r="O283" s="47"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284" s="26" t="s">
         <v>248</v>
       </c>
@@ -13416,23 +13372,23 @@
         <v>0</v>
       </c>
       <c r="J284" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>1</v>
       </c>
       <c r="K284" s="2">
         <v>240</v>
       </c>
       <c r="L284" s="5">
-        <f>I284*G284</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="M284" s="65">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>240</v>
       </c>
       <c r="O284" s="47"/>
     </row>
-    <row r="285" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="26" t="s">
         <v>265</v>
       </c>
@@ -13464,16 +13420,16 @@
         <v>490</v>
       </c>
       <c r="L285" s="5">
-        <f>I285*G285</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="M285" s="65">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>490</v>
       </c>
       <c r="O285" s="47"/>
     </row>
-    <row r="286" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="26" t="s">
         <v>266</v>
       </c>
@@ -13505,16 +13461,16 @@
         <v>6173.9999999999991</v>
       </c>
       <c r="L286" s="5">
-        <f>I286*G286</f>
+        <f t="shared" si="99"/>
         <v>0</v>
       </c>
       <c r="M286" s="65">
-        <f t="shared" ref="M286" si="99">L286+K286</f>
+        <f t="shared" ref="M286" si="102">L286+K286</f>
         <v>6173.9999999999991</v>
       </c>
       <c r="O286" s="47"/>
     </row>
-    <row r="287" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="26" t="s">
         <v>311</v>
       </c>
@@ -13536,26 +13492,27 @@
         <v>23</v>
       </c>
       <c r="I287" s="5">
-        <v>1</v>
+        <f>80%*1</f>
+        <v>0.8</v>
       </c>
       <c r="J287" s="2">
         <f>I287+H287</f>
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="K287" s="2">
         <v>1610</v>
       </c>
       <c r="L287" s="5">
-        <f>I287*G287</f>
-        <v>70</v>
+        <f t="shared" si="99"/>
+        <v>56</v>
       </c>
       <c r="M287" s="65">
         <f>L287+K287</f>
-        <v>1680</v>
+        <v>1666</v>
       </c>
       <c r="O287" s="47"/>
     </row>
-    <row r="288" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="26" t="s">
         <v>331</v>
       </c>
@@ -13576,30 +13533,30 @@
       </c>
       <c r="H288" s="24"/>
       <c r="I288" s="5">
-        <f>121.45</f>
-        <v>121.45</v>
+        <f>80%*121.45</f>
+        <v>97.160000000000011</v>
       </c>
       <c r="J288" s="2">
         <f>I288+H288</f>
-        <v>121.45</v>
+        <v>97.160000000000011</v>
       </c>
       <c r="K288" s="2">
         <v>0</v>
       </c>
       <c r="L288" s="5">
-        <f>I288*G288</f>
-        <v>1943.2</v>
+        <f t="shared" si="99"/>
+        <v>1554.5600000000002</v>
       </c>
       <c r="M288" s="65">
         <f>L288+K288</f>
-        <v>1943.2</v>
+        <v>1554.5600000000002</v>
       </c>
       <c r="N288" s="66" t="s">
         <v>362</v>
       </c>
       <c r="O288" s="47"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289" s="26"/>
       <c r="B289" s="27"/>
       <c r="C289" s="2"/>
@@ -13615,7 +13572,7 @@
       <c r="M289" s="65"/>
       <c r="O289" s="47"/>
     </row>
-    <row r="290" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A290" s="26"/>
       <c r="B290" s="52" t="s">
         <v>220</v>
@@ -13632,7 +13589,7 @@
       <c r="L290" s="5"/>
       <c r="M290" s="13"/>
     </row>
-    <row r="291" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="26">
         <v>191</v>
       </c>
@@ -13654,28 +13611,29 @@
         <v>0.9</v>
       </c>
       <c r="I291" s="5">
-        <v>0.1</v>
+        <f>80%*0.1</f>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="J291" s="2">
         <f>H291+I291</f>
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="K291" s="2">
         <v>15829.2</v>
       </c>
       <c r="L291" s="5">
         <f>I291*G291</f>
-        <v>1758.8000000000002</v>
+        <v>1407.0400000000002</v>
       </c>
       <c r="M291" s="13">
         <f>L291+K291</f>
-        <v>17588</v>
+        <v>17236.240000000002</v>
       </c>
       <c r="N291" s="66" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="26" t="s">
         <v>249</v>
       </c>
@@ -13715,7 +13673,7 @@
         <v>8280</v>
       </c>
     </row>
-    <row r="293" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="26" t="s">
         <v>250</v>
       </c>
@@ -13753,7 +13711,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294" s="53">
         <v>192</v>
       </c>
@@ -13775,29 +13733,29 @@
         <v>3</v>
       </c>
       <c r="I294" s="5">
-        <f>5</f>
-        <v>5</v>
+        <f>80%*5</f>
+        <v>4</v>
       </c>
       <c r="J294" s="2">
-        <f t="shared" ref="J294" si="100">I294+H294</f>
-        <v>8</v>
+        <f t="shared" ref="J294" si="103">I294+H294</f>
+        <v>7</v>
       </c>
       <c r="K294" s="2">
         <v>480</v>
       </c>
       <c r="L294" s="5">
         <f>I294*G294</f>
-        <v>800</v>
+        <v>640</v>
       </c>
       <c r="M294" s="65">
-        <f t="shared" ref="M294" si="101">L294+K294</f>
-        <v>1280</v>
+        <f t="shared" ref="M294" si="104">L294+K294</f>
+        <v>1120</v>
       </c>
       <c r="N294" s="66" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295" s="53">
         <v>193</v>
       </c>
@@ -13819,29 +13777,29 @@
         <v>1</v>
       </c>
       <c r="I295" s="5">
-        <f>14</f>
-        <v>14</v>
+        <f>80%*14</f>
+        <v>11.200000000000001</v>
       </c>
       <c r="J295" s="2">
-        <f t="shared" ref="J295" si="102">I295+H295</f>
-        <v>15</v>
+        <f t="shared" ref="J295" si="105">I295+H295</f>
+        <v>12.200000000000001</v>
       </c>
       <c r="K295" s="2">
         <v>145</v>
       </c>
       <c r="L295" s="5">
         <f>I295*G295</f>
-        <v>2030</v>
+        <v>1624.0000000000002</v>
       </c>
       <c r="M295" s="65">
-        <f t="shared" ref="M295" si="103">L295+K295</f>
-        <v>2175</v>
+        <f t="shared" ref="M295" si="106">L295+K295</f>
+        <v>1769.0000000000002</v>
       </c>
       <c r="N295" s="66" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296" s="53">
         <v>194</v>
       </c>
@@ -13863,29 +13821,29 @@
         <v>2</v>
       </c>
       <c r="I296" s="5">
-        <f>3</f>
-        <v>3</v>
+        <f>80%*3</f>
+        <v>2.4000000000000004</v>
       </c>
       <c r="J296" s="2">
-        <f t="shared" ref="J296" si="104">I296+H296</f>
-        <v>5</v>
+        <f t="shared" ref="J296" si="107">I296+H296</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K296" s="2">
         <v>260</v>
       </c>
       <c r="L296" s="5">
         <f>I296*G296</f>
-        <v>390</v>
+        <v>312.00000000000006</v>
       </c>
       <c r="M296" s="65">
-        <f t="shared" ref="M296" si="105">L296+K296</f>
-        <v>650</v>
+        <f t="shared" ref="M296" si="108">L296+K296</f>
+        <v>572</v>
       </c>
       <c r="N296" s="66" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297" s="53">
         <v>195</v>
       </c>
@@ -13908,7 +13866,7 @@
       <c r="L297" s="5"/>
       <c r="M297" s="57"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298" s="53">
         <v>196</v>
       </c>
@@ -13931,7 +13889,7 @@
       <c r="L298" s="5"/>
       <c r="M298" s="57"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299" s="26" t="s">
         <v>268</v>
       </c>
@@ -13956,14 +13914,14 @@
         <v>0</v>
       </c>
       <c r="J299" s="2">
-        <f t="shared" ref="J299:J304" si="106">I299+H299</f>
+        <f t="shared" ref="J299:J304" si="109">I299+H299</f>
         <v>44.3</v>
       </c>
       <c r="K299" s="2">
         <v>5316</v>
       </c>
       <c r="L299" s="5">
-        <f>I299*G299</f>
+        <f t="shared" ref="L299:L311" si="110">I299*G299</f>
         <v>0</v>
       </c>
       <c r="M299" s="13">
@@ -13971,7 +13929,7 @@
         <v>5316</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300" s="26" t="s">
         <v>301</v>
       </c>
@@ -13994,14 +13952,14 @@
       </c>
       <c r="I300" s="5"/>
       <c r="J300" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>4</v>
       </c>
       <c r="K300" s="2">
         <v>2000</v>
       </c>
       <c r="L300" s="5">
-        <f>I300*G300</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="M300" s="13">
@@ -14009,7 +13967,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301" s="26" t="s">
         <v>303</v>
       </c>
@@ -14031,29 +13989,29 @@
         <v>9.5</v>
       </c>
       <c r="I301" s="5">
-        <f>9.5</f>
-        <v>9.5</v>
+        <f>80%*9.5</f>
+        <v>7.6000000000000005</v>
       </c>
       <c r="J301" s="2">
-        <f t="shared" si="106"/>
-        <v>19</v>
+        <f t="shared" si="109"/>
+        <v>17.100000000000001</v>
       </c>
       <c r="K301" s="2">
         <v>1140</v>
       </c>
       <c r="L301" s="5">
-        <f>I301*G301</f>
-        <v>1140</v>
+        <f t="shared" si="110"/>
+        <v>912.00000000000011</v>
       </c>
       <c r="M301" s="13">
         <f>L301+K301</f>
-        <v>2280</v>
+        <v>2052</v>
       </c>
       <c r="N301" s="66" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302" s="26" t="s">
         <v>304</v>
       </c>
@@ -14078,14 +14036,14 @@
         <v>0</v>
       </c>
       <c r="J302" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>14</v>
       </c>
       <c r="K302" s="2">
         <v>1680</v>
       </c>
       <c r="L302" s="5">
-        <f>I302*G302</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="M302" s="13">
@@ -14093,7 +14051,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303" s="26" t="s">
         <v>305</v>
       </c>
@@ -14118,14 +14076,14 @@
         <v>0</v>
       </c>
       <c r="J303" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>19.5</v>
       </c>
       <c r="K303" s="2">
         <v>1755</v>
       </c>
       <c r="L303" s="5">
-        <f>I303*G303</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="M303" s="13">
@@ -14133,7 +14091,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304" s="26" t="s">
         <v>306</v>
       </c>
@@ -14156,22 +14114,22 @@
       </c>
       <c r="I304" s="5"/>
       <c r="J304" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="109"/>
         <v>17</v>
       </c>
       <c r="K304" s="2">
         <v>1190</v>
       </c>
       <c r="L304" s="5">
-        <f>I304*G304</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="M304" s="65">
-        <f t="shared" ref="M304" si="107">L304+K304</f>
+        <f t="shared" ref="M304" si="111">L304+K304</f>
         <v>1190</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305" s="26"/>
       <c r="B305" s="27"/>
       <c r="C305" s="2"/>
@@ -14182,22 +14140,22 @@
       <c r="H305" s="24"/>
       <c r="I305" s="5"/>
       <c r="J305" s="2">
-        <f t="shared" ref="J305:J306" si="108">I305+H305</f>
+        <f t="shared" ref="J305:J306" si="112">I305+H305</f>
         <v>0</v>
       </c>
       <c r="K305" s="2">
         <v>0</v>
       </c>
       <c r="L305" s="5">
-        <f>I305*G305</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="M305" s="65">
-        <f t="shared" ref="M305:M306" si="109">L305+K305</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M305:M306" si="113">L305+K305</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306" s="26" t="s">
         <v>316</v>
       </c>
@@ -14223,22 +14181,22 @@
         <v>0</v>
       </c>
       <c r="J306" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>153.69</v>
       </c>
       <c r="K306" s="2">
         <v>21516.6</v>
       </c>
       <c r="L306" s="5">
-        <f>I306*G306</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="M306" s="65">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>21516.6</v>
       </c>
     </row>
-    <row r="307" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A307" s="26" t="s">
         <v>318</v>
       </c>
@@ -14263,22 +14221,22 @@
         <v>0</v>
       </c>
       <c r="J307" s="2">
-        <f t="shared" ref="J307:J308" si="110">I307+H307</f>
+        <f t="shared" ref="J307:J308" si="114">I307+H307</f>
         <v>61</v>
       </c>
       <c r="K307" s="2">
         <v>5490</v>
       </c>
       <c r="L307" s="5">
-        <f>I307*G307</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="M307" s="65">
-        <f t="shared" ref="M307:M308" si="111">L307+K307</f>
+        <f t="shared" ref="M307:M308" si="115">L307+K307</f>
         <v>5490</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308" s="26" t="s">
         <v>324</v>
       </c>
@@ -14303,22 +14261,22 @@
         <v>0</v>
       </c>
       <c r="J308" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="114"/>
         <v>6</v>
       </c>
       <c r="K308" s="2">
         <v>420</v>
       </c>
       <c r="L308" s="5">
-        <f>I308*G308</f>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="M308" s="65">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>420</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309" s="26" t="s">
         <v>332</v>
       </c>
@@ -14340,25 +14298,26 @@
         <v>0</v>
       </c>
       <c r="I309" s="5">
-        <v>48</v>
+        <f>80%*48</f>
+        <v>38.400000000000006</v>
       </c>
       <c r="J309" s="2">
-        <f t="shared" ref="J309" si="112">I309+H309</f>
-        <v>48</v>
+        <f t="shared" ref="J309" si="116">I309+H309</f>
+        <v>38.400000000000006</v>
       </c>
       <c r="K309" s="2">
         <v>0</v>
       </c>
       <c r="L309" s="5">
-        <f>I309*G309</f>
-        <v>3360</v>
+        <f t="shared" si="110"/>
+        <v>2688.0000000000005</v>
       </c>
       <c r="M309" s="65">
-        <f t="shared" ref="M309" si="113">L309+K309</f>
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M309" si="117">L309+K309</f>
+        <v>2688.0000000000005</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310" s="26" t="s">
         <v>333</v>
       </c>
@@ -14380,25 +14339,26 @@
         <v>0</v>
       </c>
       <c r="I310" s="5">
-        <v>7.3</v>
+        <f>80%*7.3</f>
+        <v>5.84</v>
       </c>
       <c r="J310" s="2">
-        <f t="shared" ref="J310" si="114">I310+H310</f>
-        <v>7.3</v>
+        <f t="shared" ref="J310" si="118">I310+H310</f>
+        <v>5.84</v>
       </c>
       <c r="K310" s="2">
         <v>0</v>
       </c>
       <c r="L310" s="5">
-        <f>I310*G310</f>
-        <v>876</v>
+        <f t="shared" si="110"/>
+        <v>700.8</v>
       </c>
       <c r="M310" s="65">
-        <f t="shared" ref="M310" si="115">L310+K310</f>
-        <v>876</v>
-      </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M310" si="119">L310+K310</f>
+        <v>700.8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311" s="26" t="s">
         <v>334</v>
       </c>
@@ -14420,25 +14380,26 @@
         <v>0</v>
       </c>
       <c r="I311" s="5">
-        <v>6.44</v>
+        <f>80%*6.44</f>
+        <v>5.152000000000001</v>
       </c>
       <c r="J311" s="2">
-        <f t="shared" ref="J311" si="116">I311+H311</f>
-        <v>6.44</v>
+        <f t="shared" ref="J311" si="120">I311+H311</f>
+        <v>5.152000000000001</v>
       </c>
       <c r="K311" s="2">
         <v>0</v>
       </c>
       <c r="L311" s="5">
-        <f>I311*G311</f>
-        <v>579.6</v>
+        <f t="shared" si="110"/>
+        <v>463.68000000000006</v>
       </c>
       <c r="M311" s="65">
-        <f t="shared" ref="M311" si="117">L311+K311</f>
-        <v>579.6</v>
-      </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M311" si="121">L311+K311</f>
+        <v>463.68000000000006</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312" s="26"/>
       <c r="B312" s="27"/>
       <c r="C312" s="2"/>
@@ -14453,7 +14414,7 @@
       <c r="L312" s="5"/>
       <c r="M312" s="65"/>
     </row>
-    <row r="313" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="26"/>
       <c r="B313" s="87" t="s">
         <v>322</v>
@@ -14470,7 +14431,7 @@
       <c r="L313" s="5"/>
       <c r="M313" s="65"/>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314" s="26" t="s">
         <v>335</v>
       </c>
@@ -14493,29 +14454,29 @@
         <v>0</v>
       </c>
       <c r="I314" s="5">
-        <f>5.03</f>
-        <v>5.03</v>
+        <f>80%*5.03</f>
+        <v>4.024</v>
       </c>
       <c r="J314" s="2">
-        <f t="shared" ref="J314" si="118">I314+H314</f>
-        <v>5.03</v>
+        <f t="shared" ref="J314" si="122">I314+H314</f>
+        <v>4.024</v>
       </c>
       <c r="K314" s="2">
         <v>0</v>
       </c>
       <c r="L314" s="5">
         <f>I314*G314</f>
-        <v>452.70000000000005</v>
+        <v>362.16</v>
       </c>
       <c r="M314" s="65">
-        <f t="shared" ref="M314" si="119">L314+K314</f>
-        <v>452.70000000000005</v>
+        <f t="shared" ref="M314" si="123">L314+K314</f>
+        <v>362.16</v>
       </c>
       <c r="N314" s="66" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315" s="26" t="s">
         <v>336</v>
       </c>
@@ -14537,28 +14498,29 @@
         <v>0</v>
       </c>
       <c r="I315" s="5">
-        <v>2.06</v>
+        <f>80%*2.06</f>
+        <v>1.6480000000000001</v>
       </c>
       <c r="J315" s="2">
-        <f t="shared" ref="J315:J316" si="120">I315+H315</f>
-        <v>2.06</v>
+        <f t="shared" ref="J315:J316" si="124">I315+H315</f>
+        <v>1.6480000000000001</v>
       </c>
       <c r="K315" s="2">
         <v>0</v>
       </c>
       <c r="L315" s="5">
         <f>I315*G315</f>
-        <v>247.20000000000002</v>
+        <v>197.76000000000002</v>
       </c>
       <c r="M315" s="65">
-        <f t="shared" ref="M315" si="121">L315+K315</f>
-        <v>247.20000000000002</v>
+        <f t="shared" ref="M315" si="125">L315+K315</f>
+        <v>197.76000000000002</v>
       </c>
       <c r="N315" s="66" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316" s="26" t="s">
         <v>337</v>
       </c>
@@ -14580,28 +14542,29 @@
         <v>0</v>
       </c>
       <c r="I316" s="5">
-        <v>1</v>
+        <f>80%*1</f>
+        <v>0.8</v>
       </c>
       <c r="J316" s="2">
-        <f t="shared" si="120"/>
-        <v>1</v>
+        <f t="shared" si="124"/>
+        <v>0.8</v>
       </c>
       <c r="K316" s="2">
         <v>0</v>
       </c>
       <c r="L316" s="5">
         <f>I316*G316</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M316" s="13">
         <f>L316+K316</f>
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N316" s="66" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317" s="26"/>
       <c r="B317" s="27"/>
       <c r="C317" s="2"/>
@@ -14616,7 +14579,7 @@
       <c r="L317" s="5"/>
       <c r="M317" s="13"/>
     </row>
-    <row r="318" spans="1:14" ht="17" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A318" s="25"/>
       <c r="B318" s="28" t="s">
         <v>226</v>
@@ -14633,7 +14596,7 @@
       <c r="L318" s="5"/>
       <c r="M318" s="12"/>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319" s="26">
         <v>197</v>
       </c>
@@ -14669,7 +14632,7 @@
         <v>527.85</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320" s="26">
         <v>198</v>
       </c>
@@ -14705,7 +14668,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" s="26">
         <v>199</v>
       </c>
@@ -14743,7 +14706,7 @@
         <v>344.25</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322" s="26">
         <v>200</v>
       </c>
@@ -14779,7 +14742,7 @@
         <v>60.75</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" s="26"/>
       <c r="B323" s="27"/>
       <c r="C323" s="2"/>
@@ -14796,7 +14759,7 @@
       <c r="L323" s="5"/>
       <c r="M323" s="13"/>
     </row>
-    <row r="324" spans="1:13" ht="17" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A324" s="26"/>
       <c r="B324" s="28" t="s">
         <v>236</v>
@@ -14813,7 +14776,7 @@
       <c r="L324" s="5"/>
       <c r="M324" s="13"/>
     </row>
-    <row r="325" spans="1:13" ht="56" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A325" s="26">
         <v>201</v>
       </c>
@@ -14836,7 +14799,7 @@
         <v>0</v>
       </c>
       <c r="J325" s="2">
-        <f t="shared" ref="J325:J331" si="122">I325+H326</f>
+        <f t="shared" ref="J325:J331" si="126">I325+H326</f>
         <v>49.4</v>
       </c>
       <c r="K325" s="2">
@@ -14846,11 +14809,11 @@
         <v>0</v>
       </c>
       <c r="M325" s="13">
-        <f t="shared" ref="M325:M331" si="123">L325+K325</f>
+        <f t="shared" ref="M325:M331" si="127">L325+K325</f>
         <v>6669</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="53.5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:13" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A326" s="26">
         <v>202</v>
       </c>
@@ -14876,22 +14839,22 @@
         <v>0</v>
       </c>
       <c r="J326" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>85.35</v>
       </c>
       <c r="K326" s="2">
         <v>10668.75</v>
       </c>
       <c r="L326" s="5">
-        <f>I326*G326</f>
+        <f t="shared" ref="L326:L331" si="128">I326*G326</f>
         <v>0</v>
       </c>
       <c r="M326" s="13">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>10668.75</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A327" s="26">
         <v>203</v>
       </c>
@@ -14916,22 +14879,22 @@
         <v>0</v>
       </c>
       <c r="J327" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>94.4</v>
       </c>
       <c r="K327" s="2">
         <v>12272</v>
       </c>
       <c r="L327" s="5">
-        <f>I327*G327</f>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="M327" s="13">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>12272</v>
       </c>
     </row>
-    <row r="328" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A328" s="26">
         <v>204</v>
       </c>
@@ -14956,22 +14919,22 @@
         <v>0</v>
       </c>
       <c r="J328" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>21</v>
       </c>
       <c r="K328" s="2">
         <v>2520</v>
       </c>
       <c r="L328" s="5">
-        <f>I328*G328</f>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="M328" s="13">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>2520</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="26">
         <v>205</v>
       </c>
@@ -14996,22 +14959,22 @@
         <v>0</v>
       </c>
       <c r="J329" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>79.12</v>
       </c>
       <c r="K329" s="2">
         <v>5538.4000000000005</v>
       </c>
       <c r="L329" s="5">
-        <f>I329*G329</f>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="M329" s="13">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>5538.4000000000005</v>
       </c>
     </row>
-    <row r="330" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="26">
         <v>206</v>
       </c>
@@ -15036,22 +14999,22 @@
         <v>0</v>
       </c>
       <c r="J330" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>16</v>
       </c>
       <c r="K330" s="2">
         <v>4000</v>
       </c>
       <c r="L330" s="5">
-        <f>I330*G330</f>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="M330" s="13">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>4000</v>
       </c>
     </row>
-    <row r="331" spans="1:13" ht="27.5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:13" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A331" s="26">
         <v>207</v>
       </c>
@@ -15077,22 +15040,22 @@
         <v>0</v>
       </c>
       <c r="J331" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>400.36</v>
       </c>
       <c r="K331" s="2">
         <v>6005.4000000000005</v>
       </c>
       <c r="L331" s="5">
-        <f>I331*G331</f>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="M331" s="13">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>6005.4000000000005</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332" s="26"/>
       <c r="B332" s="27"/>
       <c r="C332" s="2"/>
@@ -15109,7 +15072,7 @@
       <c r="L332" s="5"/>
       <c r="M332" s="13"/>
     </row>
-    <row r="333" spans="1:13" ht="17" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A333" s="26"/>
       <c r="B333" s="28" t="s">
         <v>239</v>
@@ -15126,7 +15089,7 @@
       <c r="L333" s="5"/>
       <c r="M333" s="13"/>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334" s="26">
         <v>208</v>
       </c>
@@ -15167,7 +15130,7 @@
         <v>1415.25</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335" s="26">
         <v>208</v>
       </c>
@@ -15208,7 +15171,7 @@
         <v>249.74999999999997</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336" s="26"/>
       <c r="B336" s="27"/>
       <c r="C336" s="2"/>
@@ -15225,7 +15188,7 @@
       <c r="L336" s="5"/>
       <c r="M336" s="13"/>
     </row>
-    <row r="337" spans="1:13" ht="17" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A337" s="26"/>
       <c r="B337" s="28" t="s">
         <v>270</v>
@@ -15242,7 +15205,7 @@
       <c r="L337" s="5"/>
       <c r="M337" s="13"/>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338" s="26">
         <v>209</v>
       </c>
@@ -15282,7 +15245,7 @@
         <v>1742.5</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339" s="26">
         <v>210</v>
       </c>
@@ -15321,7 +15284,7 @@
         <v>307.5</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340" s="26"/>
       <c r="B340" s="27"/>
       <c r="C340" s="2"/>
@@ -15338,7 +15301,7 @@
       <c r="L340" s="5"/>
       <c r="M340" s="13"/>
     </row>
-    <row r="341" spans="1:13" ht="34" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A341" s="26"/>
       <c r="B341" s="28" t="s">
         <v>278</v>
@@ -15355,7 +15318,7 @@
       <c r="L341" s="5"/>
       <c r="M341" s="13"/>
     </row>
-    <row r="342" spans="1:13" ht="39" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A342" s="26">
         <v>211</v>
       </c>
@@ -15382,22 +15345,22 @@
         <v>0</v>
       </c>
       <c r="J342" s="2">
-        <f t="shared" ref="J342:J348" si="124">H342+I342</f>
+        <f t="shared" ref="J342:J348" si="129">H342+I342</f>
         <v>51.35</v>
       </c>
       <c r="K342" s="2">
         <v>6932.25</v>
       </c>
       <c r="L342" s="5">
-        <f>I342*F342+I342*E342</f>
+        <f t="shared" ref="L342:L357" si="130">I342*F342+I342*E342</f>
         <v>0</v>
       </c>
       <c r="M342" s="13">
-        <f t="shared" ref="M342:M348" si="125">L342+K342</f>
+        <f t="shared" ref="M342:M348" si="131">L342+K342</f>
         <v>6932.25</v>
       </c>
     </row>
-    <row r="343" spans="1:13" ht="39" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A343" s="26">
         <v>212</v>
       </c>
@@ -15424,22 +15387,22 @@
         <v>0</v>
       </c>
       <c r="J343" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>89.7</v>
       </c>
       <c r="K343" s="2">
         <v>11212.5</v>
       </c>
       <c r="L343" s="5">
-        <f>I343*F343+I343*E343</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="M343" s="13">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>11212.5</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="39" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A344" s="26">
         <v>213</v>
       </c>
@@ -15466,22 +15429,22 @@
         <v>0</v>
       </c>
       <c r="J344" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>152</v>
       </c>
       <c r="K344" s="2">
         <v>19760</v>
       </c>
       <c r="L344" s="5">
-        <f>I344*F344+I344*E344</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="M344" s="13">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>19760</v>
       </c>
     </row>
-    <row r="345" spans="1:13" ht="39" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:13" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A345" s="26">
         <v>214</v>
       </c>
@@ -15506,22 +15469,22 @@
         <v>0</v>
       </c>
       <c r="J345" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>21</v>
       </c>
       <c r="K345" s="2">
         <v>2100</v>
       </c>
       <c r="L345" s="5">
-        <f>I345*F345+I345*E345</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="M345" s="13">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>2100</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A346" s="26">
         <v>215</v>
       </c>
@@ -15546,22 +15509,22 @@
         <v>0</v>
       </c>
       <c r="J346" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>126</v>
       </c>
       <c r="K346" s="2">
         <v>8820</v>
       </c>
       <c r="L346" s="5">
-        <f>I346*F346+I346*E346</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="M346" s="13">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>8820</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347" s="26">
         <v>216</v>
       </c>
@@ -15586,22 +15549,22 @@
         <v>0</v>
       </c>
       <c r="J347" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>20</v>
       </c>
       <c r="K347" s="2">
         <v>5000</v>
       </c>
       <c r="L347" s="5">
-        <f>I347*F347+I347*E347</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="M347" s="13">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="348" spans="1:13" ht="26" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A348" s="26">
         <v>217</v>
       </c>
@@ -15626,22 +15589,22 @@
         <v>0</v>
       </c>
       <c r="J348" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="129"/>
         <v>491</v>
       </c>
       <c r="K348" s="2">
         <v>7365</v>
       </c>
       <c r="L348" s="5">
-        <f>I348*F348+I348*E348</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="M348" s="13">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>7365</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349" s="26"/>
       <c r="B349" s="71" t="s">
         <v>275</v>
@@ -15654,22 +15617,22 @@
       <c r="H349" s="24"/>
       <c r="I349" s="5"/>
       <c r="J349" s="2">
-        <f t="shared" ref="J349:J350" si="126">H349+I349</f>
+        <f t="shared" ref="J349:J350" si="132">H349+I349</f>
         <v>0</v>
       </c>
       <c r="K349" s="2">
         <v>0</v>
       </c>
       <c r="L349" s="5">
-        <f>I349*F349+I349*E349</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="M349" s="13">
-        <f t="shared" ref="M349:M350" si="127">L349+K349</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:13" ht="26" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M349:M350" si="133">L349+K349</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A350" s="26">
         <v>218</v>
       </c>
@@ -15694,22 +15657,22 @@
         <v>0</v>
       </c>
       <c r="J350" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>100.56</v>
       </c>
       <c r="K350" s="2">
         <v>12067.2</v>
       </c>
       <c r="L350" s="5">
-        <f>I350*F350+I350*E350</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="M350" s="13">
-        <f t="shared" si="127"/>
+        <f t="shared" si="133"/>
         <v>12067.2</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351" s="26">
         <v>219</v>
       </c>
@@ -15734,22 +15697,22 @@
         <v>0</v>
       </c>
       <c r="J351" s="2">
-        <f t="shared" ref="J351" si="128">H351+I351</f>
+        <f t="shared" ref="J351" si="134">H351+I351</f>
         <v>155</v>
       </c>
       <c r="K351" s="2">
         <v>10850</v>
       </c>
       <c r="L351" s="5">
-        <f>I351*F351+I351*E351</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="M351" s="13">
-        <f t="shared" ref="M351" si="129">L351+K351</f>
+        <f t="shared" ref="M351" si="135">L351+K351</f>
         <v>10850</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A352" s="26">
         <v>220</v>
       </c>
@@ -15774,22 +15737,22 @@
         <v>0</v>
       </c>
       <c r="J352" s="2">
-        <f t="shared" ref="J352" si="130">H352+I352</f>
+        <f t="shared" ref="J352" si="136">H352+I352</f>
         <v>1</v>
       </c>
       <c r="K352" s="2">
         <v>250</v>
       </c>
       <c r="L352" s="5">
-        <f>I352*F352+I352*E352</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="M352" s="13">
-        <f t="shared" ref="M352" si="131">L352+K352</f>
+        <f t="shared" ref="M352" si="137">L352+K352</f>
         <v>250</v>
       </c>
     </row>
-    <row r="353" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="26">
         <v>221</v>
       </c>
@@ -15814,22 +15777,22 @@
         <v>0</v>
       </c>
       <c r="J353" s="2">
-        <f t="shared" ref="J353" si="132">H353+I353</f>
+        <f t="shared" ref="J353" si="138">H353+I353</f>
         <v>65</v>
       </c>
       <c r="K353" s="2">
         <v>975</v>
       </c>
       <c r="L353" s="5">
-        <f>I353*F353+I353*E353</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="M353" s="13">
-        <f t="shared" ref="M353" si="133">L353+K353</f>
+        <f t="shared" ref="M353" si="139">L353+K353</f>
         <v>975</v>
       </c>
     </row>
-    <row r="354" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="26"/>
       <c r="B354" s="70"/>
       <c r="C354" s="49"/>
@@ -15840,22 +15803,22 @@
       <c r="H354" s="24"/>
       <c r="I354" s="5"/>
       <c r="J354" s="2">
-        <f t="shared" ref="J354:J355" si="134">H354+I354</f>
+        <f t="shared" ref="J354:J355" si="140">H354+I354</f>
         <v>0</v>
       </c>
       <c r="K354" s="2">
         <v>0</v>
       </c>
       <c r="L354" s="5">
-        <f>I354*F354+I354*E354</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="M354" s="13">
-        <f t="shared" ref="M354:M355" si="135">L354+K354</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M354:M355" si="141">L354+K354</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A355" s="26">
         <v>222</v>
       </c>
@@ -15883,22 +15846,22 @@
         <v>0</v>
       </c>
       <c r="J355" s="2">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>6.08</v>
       </c>
       <c r="K355" s="2">
         <v>516.79999999999995</v>
       </c>
       <c r="L355" s="5">
-        <f>I355*F355+I355*E355</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="M355" s="13">
-        <f t="shared" si="135"/>
+        <f t="shared" si="141"/>
         <v>516.79999999999995</v>
       </c>
     </row>
-    <row r="356" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A356" s="26">
         <v>223</v>
       </c>
@@ -15926,22 +15889,22 @@
         <v>0</v>
       </c>
       <c r="J356" s="2">
-        <f t="shared" ref="J356" si="136">H356+I356</f>
+        <f t="shared" ref="J356" si="142">H356+I356</f>
         <v>16.77</v>
       </c>
       <c r="K356" s="2">
         <v>1425.45</v>
       </c>
       <c r="L356" s="5">
-        <f>I356*F356+I356*E356</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="M356" s="13">
-        <f t="shared" ref="M356" si="137">L356+K356</f>
+        <f t="shared" ref="M356" si="143">L356+K356</f>
         <v>1425.45</v>
       </c>
     </row>
-    <row r="357" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A357" s="26">
         <v>224</v>
       </c>
@@ -15968,22 +15931,22 @@
         <v>0</v>
       </c>
       <c r="J357" s="2">
-        <f t="shared" ref="J357" si="138">H357+I357</f>
+        <f t="shared" ref="J357" si="144">H357+I357</f>
         <v>8</v>
       </c>
       <c r="K357" s="2">
         <v>960</v>
       </c>
       <c r="L357" s="5">
-        <f>I357*F357+I357*E357</f>
+        <f t="shared" si="130"/>
         <v>0</v>
       </c>
       <c r="M357" s="13">
-        <f t="shared" ref="M357" si="139">L357+K357</f>
+        <f t="shared" ref="M357" si="145">L357+K357</f>
         <v>960</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A358" s="26"/>
       <c r="B358" s="27"/>
       <c r="C358" s="2"/>
@@ -15998,7 +15961,7 @@
       <c r="L358" s="5"/>
       <c r="M358" s="13"/>
     </row>
-    <row r="359" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A359" s="26">
         <v>225</v>
       </c>
@@ -16023,25 +15986,26 @@
         <v>0</v>
       </c>
       <c r="I359" s="5">
-        <v>31.5</v>
+        <f>80%*31.5</f>
+        <v>25.200000000000003</v>
       </c>
       <c r="J359" s="2">
-        <f t="shared" ref="J359" si="140">H359+I359</f>
-        <v>31.5</v>
+        <f t="shared" ref="J359" si="146">H359+I359</f>
+        <v>25.200000000000003</v>
       </c>
       <c r="K359" s="2">
         <v>0</v>
       </c>
       <c r="L359" s="5">
         <f>I359*F359+I359*E359</f>
-        <v>4410</v>
+        <v>3528.0000000000009</v>
       </c>
       <c r="M359" s="13">
-        <f t="shared" ref="M359" si="141">L359+K359</f>
-        <v>4410</v>
-      </c>
-    </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M359" si="147">L359+K359</f>
+        <v>3528.0000000000009</v>
+      </c>
+    </row>
+    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A360" s="26"/>
       <c r="B360" s="27"/>
       <c r="C360" s="2"/>
@@ -16056,7 +16020,7 @@
       <c r="L360" s="5"/>
       <c r="M360" s="13"/>
     </row>
-    <row r="361" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A361" s="26">
         <v>226</v>
       </c>
@@ -16080,25 +16044,26 @@
         <v>0</v>
       </c>
       <c r="I361" s="5">
-        <v>10.66</v>
+        <f>80%*10.66</f>
+        <v>8.5280000000000005</v>
       </c>
       <c r="J361" s="2">
-        <f t="shared" ref="J361" si="142">H361+I361</f>
-        <v>10.66</v>
+        <f t="shared" ref="J361" si="148">H361+I361</f>
+        <v>8.5280000000000005</v>
       </c>
       <c r="K361" s="2">
         <v>0</v>
       </c>
       <c r="L361" s="5">
         <f>I361*F361+I361*E361</f>
-        <v>1545.7</v>
+        <v>1236.56</v>
       </c>
       <c r="M361" s="13">
-        <f t="shared" ref="M361" si="143">L361+K361</f>
-        <v>1545.7</v>
-      </c>
-    </row>
-    <row r="362" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" ref="M361" si="149">L361+K361</f>
+        <v>1236.56</v>
+      </c>
+    </row>
+    <row r="362" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="26"/>
       <c r="B362" s="70"/>
       <c r="C362" s="49"/>
@@ -16115,7 +16080,7 @@
       <c r="L362" s="5"/>
       <c r="M362" s="13"/>
     </row>
-    <row r="363" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="26"/>
       <c r="B363" s="27"/>
       <c r="C363" s="2"/>
@@ -16138,11 +16103,11 @@
         <v>0</v>
       </c>
       <c r="M363" s="13">
-        <f t="shared" si="68"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="14"/>
       <c r="B364" s="73" t="s">
         <v>5</v>
@@ -16161,20 +16126,20 @@
       </c>
       <c r="L364" s="79">
         <f>SUM(L6:L363)</f>
-        <v>23584.400000000001</v>
+        <v>18867.520000000004</v>
       </c>
       <c r="M364" s="15">
         <f>SUM(M6:M363)</f>
-        <v>538190.88399999996</v>
-      </c>
-    </row>
-    <row r="365" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+        <v>533474.00399999996</v>
+      </c>
+    </row>
+    <row r="365" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="16"/>
       <c r="H365" s="74"/>
       <c r="I365" s="77"/>
       <c r="M365" s="17"/>
     </row>
-    <row r="366" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A366" s="18"/>
       <c r="B366" s="72" t="s">
         <v>6</v>
@@ -16190,21 +16155,14 @@
       <c r="L366" s="72"/>
       <c r="M366" s="19">
         <f>SUM(M364:M365)</f>
-        <v>538190.88399999996</v>
-      </c>
-    </row>
-    <row r="367" spans="1:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>533474.00399999996</v>
+      </c>
+    </row>
+    <row r="367" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H367" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="C2:C4"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
@@ -16215,6 +16173,13 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="G2:G4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="C2:C4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -16233,15 +16198,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F52C19EA790EB54A99A699BA62372528" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b92e8d07ddcb96500ad79536e213bba2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8182470c-9c64-4c0e-a68a-a1f556439e59" xmlns:ns3="4d52836b-ce72-4b89-82f9-d65d5dfc828e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="740b569e960f62d2154794bad3f43ad3" ns2:_="" ns3:_="">
     <xsd:import namespace="8182470c-9c64-4c0e-a68a-a1f556439e59"/>
@@ -16478,15 +16434,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70F7DE70-2722-4B9F-8D25-6A6E934E62D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{939667BF-8E7F-4950-9F3C-BFD227BED762}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16503,4 +16460,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70F7DE70-2722-4B9F-8D25-6A6E934E62D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>